--- a/Part II/Creating an Active Directory Forest/ActiveDirectoryObjects.xlsx
+++ b/Part II/Creating an Active Directory Forest/ActiveDirectoryObjects.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>PowerLab Users</t>
   </si>
@@ -39,9 +39,6 @@
     <t>jjones</t>
   </si>
   <si>
-    <t>FIrstName</t>
-  </si>
-  <si>
     <t>Joe</t>
   </si>
   <si>
@@ -148,6 +145,15 @@
   </si>
   <si>
     <t>GroupName</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>DomainLocal</t>
+  </si>
+  <si>
+    <t>FirstName</t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,13 +527,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -538,13 +544,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -552,16 +558,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -569,16 +575,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -586,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -603,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -620,16 +626,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -637,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -654,16 +660,16 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -671,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -688,16 +694,16 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -707,10 +713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,36 +725,48 @@
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
+      <c r="C4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
